--- a/app/templates/template_rules_3.xlsx
+++ b/app/templates/template_rules_3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="676">
   <si>
     <t xml:space="preserve">Certificado conformidad MINVU.</t>
   </si>
@@ -31,7 +31,10 @@
     <t xml:space="preserve">DO</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
   </si>
   <si>
     <t xml:space="preserve">Plano de planta ascensores (primer piso).</t>
@@ -2059,6 +2062,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2118,8 +2122,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2143,5086 +2151,5086 @@
   <dimension ref="A1:E349"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A322" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E335" activeCellId="0" sqref="E335"/>
+      <selection pane="topLeft" activeCell="E322" activeCellId="52" sqref="E1:E11 E19 E21 E39 E80 E84 E86 E93 E97 E101 E103:E104 E107:E109 E111 E113 E115:E116 E119:E120 E127:E128 E131 E134 E141:E143 E145:E147 E149 E154:E156 E158:E160 E177:E182 E184:E185 E190 E192:E194 E196 E200:E206 E209 E211 E213 E215:E218 E220:E225 E229 E233 E241 E245:E247 E250:E252 E255 E257:E258 E268 E273:E274 E277 E287 E305 E308 E323 E325 E335 E347:E349 E322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>3</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>3</v>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>3</v>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>3</v>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>3</v>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>3</v>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>3</v>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>3</v>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>3</v>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>3</v>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>3</v>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="0" t="s">
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="0" t="str">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="str">
         <f aca="false">B16</f>
         <v>1.2.1</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="0" t="s">
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="0" t="str">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="str">
         <f aca="false">B17</f>
         <v>1.2.1</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="0" t="s">
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>3</v>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="0" t="s">
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="0" t="str">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1" t="str">
         <f aca="false">B20</f>
         <v>1.2.3</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>3</v>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="0" t="s">
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="0" t="s">
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="0" t="s">
+      <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="0" t="str">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1" t="str">
         <f aca="false">B24</f>
         <v>1.5.1</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="0" t="s">
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="0" t="s">
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="0" t="str">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="1" t="str">
         <f aca="false">B26</f>
         <v>1.6.1</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="0" t="s">
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="0" t="s">
+      <c r="B28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="0" t="s">
+      <c r="B29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="0" t="s">
+      <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="0" t="s">
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="0" t="s">
+      <c r="B32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="0" t="s">
+      <c r="B33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="0" t="s">
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="0" t="s">
+      <c r="B35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="0" t="s">
+      <c r="B36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="0" t="s">
+      <c r="B37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="0" t="s">
+      <c r="B38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>3</v>
+      <c r="C39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="0" t="s">
+      <c r="B40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="0" t="s">
+      <c r="B41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="0" t="s">
+      <c r="B42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="0" t="s">
+      <c r="B43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="0" t="s">
+      <c r="B44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="0" t="s">
+      <c r="B45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="0" t="s">
+      <c r="B46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="0" t="s">
+      <c r="B47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="0" t="s">
+      <c r="B48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="0" t="s">
+      <c r="B49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="0" t="s">
+      <c r="B50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" s="0" t="s">
+      <c r="B51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="0" t="s">
+      <c r="B52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="0" t="s">
+      <c r="B53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="0" t="s">
+      <c r="B54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="0" t="s">
+      <c r="B55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="0" t="s">
+      <c r="B56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="0" t="s">
+      <c r="B57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="0" t="s">
+      <c r="B58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="0" t="s">
+      <c r="B59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D60" s="0" t="s">
+      <c r="B60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="0" t="s">
+      <c r="B61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" s="0" t="s">
+      <c r="B62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="0" t="s">
+      <c r="B63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="0" t="s">
+      <c r="B64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="0" t="s">
+      <c r="B65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="0" t="s">
+      <c r="B66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D67" s="0" t="s">
+      <c r="B67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="C68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="B69" s="0" t="str">
+      <c r="A69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="1" t="str">
         <f aca="false">B68</f>
         <v>2.9.1</v>
       </c>
-      <c r="C69" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D69" s="0" t="s">
+      <c r="C69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D70" s="0" t="s">
+      <c r="B70" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D71" s="0" t="s">
+      <c r="B71" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D72" s="0" t="s">
+      <c r="B72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" s="0" t="str">
+      <c r="A73" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="1" t="str">
         <f aca="false">B72</f>
         <v>2.10.1</v>
       </c>
-      <c r="C73" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D73" s="0" t="s">
+      <c r="C73" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C74" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74" s="0" t="s">
+      <c r="B74" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C75" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" s="0" t="s">
+      <c r="B75" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="0" t="s">
+      <c r="B76" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="B77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D77" s="0" t="s">
+      <c r="B77" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B78" s="0" t="str">
+      <c r="A78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="1" t="str">
         <f aca="false">B77</f>
         <v>2.13.1</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D78" s="0" t="s">
+      <c r="C78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="C79" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B80" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B89" s="0" t="s">
+      <c r="A89" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C89" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D89" s="0" t="s">
+      <c r="B89" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B90" s="0" t="s">
+      <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C90" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D90" s="0" t="s">
+      <c r="B90" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C91" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D91" s="0" t="s">
+      <c r="B91" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C92" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D92" s="0" t="s">
+      <c r="B92" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="B93" s="0" t="s">
+      <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C93" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E93" s="0" t="s">
-        <v>3</v>
+      <c r="B93" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="B94" s="0" t="s">
+      <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C94" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D94" s="0" t="s">
+      <c r="B94" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="B95" s="0" t="s">
+      <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C95" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D95" s="0" t="s">
+      <c r="B95" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="B96" s="0" t="str">
+      <c r="A96" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="1" t="str">
         <f aca="false">B95</f>
         <v>3.2.6</v>
       </c>
-      <c r="C96" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D96" s="0" t="s">
+      <c r="C96" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B97" s="0" t="str">
+      <c r="A97" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="1" t="str">
         <f aca="false">B96</f>
         <v>3.2.6</v>
       </c>
-      <c r="C97" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>3</v>
+      <c r="C97" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="B98" s="0" t="s">
+      <c r="A98" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C98" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D98" s="0" t="s">
+      <c r="B98" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="B99" s="0" t="s">
+      <c r="A99" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C99" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D99" s="0" t="s">
+      <c r="B99" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="B100" s="0" t="s">
+      <c r="A100" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C100" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D100" s="0" t="s">
+      <c r="B100" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="B101" s="0" t="s">
+      <c r="A101" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C101" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>3</v>
+      <c r="B101" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="B102" s="0" t="s">
+      <c r="A102" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C102" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D102" s="0" t="s">
+      <c r="B102" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="B103" s="0" t="s">
+      <c r="A103" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C103" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E103" s="0" t="s">
-        <v>3</v>
+      <c r="B103" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B104" s="0" t="str">
+      <c r="A104" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" s="1" t="str">
         <f aca="false">B103</f>
         <v>3.4.2</v>
       </c>
-      <c r="C104" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E104" s="0" t="s">
-        <v>3</v>
+      <c r="C104" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B105" s="0" t="s">
+      <c r="A105" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C105" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D105" s="0" t="s">
+      <c r="B105" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="B106" s="0" t="s">
+      <c r="A106" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C106" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D106" s="0" t="s">
+      <c r="B106" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="B107" s="0" t="s">
+      <c r="A107" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C107" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E107" s="0" t="s">
-        <v>3</v>
+      <c r="B107" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>3</v>
+      <c r="A108" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="B109" s="0" t="s">
+      <c r="A109" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C109" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E109" s="0" t="s">
-        <v>3</v>
+      <c r="B109" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B110" s="0" t="s">
+      <c r="A110" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C110" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D110" s="0" t="s">
+      <c r="B110" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="B111" s="0" t="s">
+      <c r="A111" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C111" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E111" s="0" t="s">
-        <v>3</v>
+      <c r="B111" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="B112" s="0" t="s">
+      <c r="A112" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C112" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D112" s="0" t="s">
+      <c r="B112" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="B113" s="0" t="s">
+      <c r="A113" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C113" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D113" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E113" s="0" t="s">
-        <v>3</v>
+      <c r="B113" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="B114" s="0" t="s">
+      <c r="A114" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C114" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D114" s="0" t="s">
+      <c r="B114" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="B115" s="0" t="s">
+      <c r="A115" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C115" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E115" s="0" t="s">
-        <v>3</v>
+      <c r="B115" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="B116" s="0" t="s">
+      <c r="A116" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C116" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E116" s="0" t="s">
-        <v>3</v>
+      <c r="B116" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B117" s="0" t="s">
+      <c r="A117" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C117" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D117" s="0" t="s">
+      <c r="B117" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="B118" s="0" t="s">
+      <c r="A118" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C118" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D118" s="0" t="s">
+      <c r="B118" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="B119" s="0" t="s">
+      <c r="A119" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C119" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E119" s="0" t="s">
-        <v>3</v>
+      <c r="B119" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="B120" s="0" t="s">
+      <c r="A120" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C120" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E120" s="0" t="s">
-        <v>3</v>
+      <c r="B120" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="B121" s="0" t="s">
+      <c r="A121" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C121" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D121" s="0" t="s">
+      <c r="B121" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="B122" s="0" t="s">
+      <c r="A122" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C122" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D122" s="0" t="s">
+      <c r="B122" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="B123" s="0" t="s">
+      <c r="A123" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C123" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D123" s="0" t="s">
+      <c r="B123" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B124" s="0" t="s">
+      <c r="A124" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C124" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D124" s="0" t="s">
+      <c r="B124" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="B125" s="0" t="s">
+      <c r="A125" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C125" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D125" s="0" t="s">
+      <c r="B125" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="B126" s="0" t="s">
+      <c r="A126" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="B126" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="C126" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="B127" s="0" t="s">
+      <c r="A127" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C127" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E127" s="0" t="s">
-        <v>3</v>
+      <c r="B127" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="B128" s="0" t="s">
+      <c r="A128" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C128" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E128" s="0" t="s">
-        <v>3</v>
+      <c r="B128" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="B129" s="0" t="s">
+      <c r="A129" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C129" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D129" s="0" t="s">
+      <c r="B129" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="B130" s="0" t="s">
+      <c r="A130" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C130" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D130" s="0" t="s">
+      <c r="B130" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B131" s="0" t="s">
+      <c r="A131" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C131" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D131" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E131" s="0" t="s">
-        <v>3</v>
+      <c r="B131" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="B132" s="0" t="s">
+      <c r="A132" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C132" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D132" s="0" t="s">
+      <c r="B132" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="B133" s="0" t="s">
+      <c r="A133" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C133" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D133" s="0" t="s">
+      <c r="B133" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="B134" s="0" t="s">
+      <c r="A134" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C134" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D134" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E134" s="0" t="s">
-        <v>3</v>
+      <c r="B134" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="B135" s="0" t="s">
+      <c r="A135" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C135" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D135" s="0" t="s">
+      <c r="B135" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="B136" s="0" t="s">
+      <c r="A136" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C136" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D136" s="0" t="s">
+      <c r="B136" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="B137" s="0" t="s">
+      <c r="A137" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C137" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D137" s="0" t="s">
+      <c r="B137" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="B138" s="0" t="s">
+      <c r="A138" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C138" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D138" s="0" t="s">
+      <c r="B138" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="B139" s="0" t="s">
+      <c r="A139" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C139" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D139" s="0" t="s">
+      <c r="B139" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="B140" s="0" t="s">
+      <c r="A140" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C140" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D140" s="0" t="s">
+      <c r="B140" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="B141" s="0" t="str">
+      <c r="A141" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" s="1" t="str">
         <f aca="false">B140</f>
         <v>4.2.3</v>
       </c>
-      <c r="C141" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E141" s="0" t="s">
-        <v>3</v>
+      <c r="C141" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="B142" s="0" t="s">
+      <c r="A142" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C142" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D142" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E142" s="0" t="s">
-        <v>3</v>
+      <c r="B142" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="B143" s="0" t="s">
+      <c r="A143" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C143" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E143" s="0" t="s">
-        <v>3</v>
+      <c r="B143" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="B144" s="0" t="s">
+      <c r="A144" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C144" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D144" s="0" t="s">
+      <c r="B144" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="B145" s="0" t="s">
+      <c r="A145" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C145" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D145" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E145" s="0" t="s">
-        <v>3</v>
+      <c r="B145" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="B146" s="0" t="s">
+      <c r="A146" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C146" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D146" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E146" s="0" t="s">
-        <v>3</v>
+      <c r="B146" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="B147" s="0" t="s">
+      <c r="A147" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C147" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D147" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E147" s="0" t="s">
-        <v>3</v>
+      <c r="B147" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="B148" s="0" t="s">
+      <c r="A148" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C148" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D148" s="0" t="s">
+      <c r="B148" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="B149" s="0" t="s">
+      <c r="A149" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C149" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D149" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E149" s="0" t="s">
-        <v>3</v>
+      <c r="B149" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B150" s="0" t="s">
+      <c r="A150" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C150" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D150" s="0" t="s">
+      <c r="B150" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="B151" s="0" t="s">
+      <c r="A151" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C151" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D151" s="0" t="s">
+      <c r="B151" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="B152" s="0" t="s">
+      <c r="A152" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C152" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D152" s="0" t="s">
+      <c r="B152" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="B153" s="0" t="s">
+      <c r="A153" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C153" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D153" s="0" t="s">
+      <c r="B153" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="B154" s="0" t="s">
+      <c r="A154" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C154" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E154" s="0" t="s">
-        <v>3</v>
+      <c r="B154" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B155" s="0" t="s">
+      <c r="A155" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C155" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E155" s="0" t="s">
-        <v>3</v>
+      <c r="B155" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="B156" s="0" t="s">
+      <c r="A156" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C156" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E156" s="0" t="s">
-        <v>3</v>
+      <c r="B156" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="B157" s="0" t="str">
+      <c r="A157" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B157" s="1" t="str">
         <f aca="false">B156</f>
         <v>4.4.7</v>
       </c>
-      <c r="C157" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D157" s="0" t="s">
+      <c r="C157" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="B158" s="0" t="s">
+      <c r="A158" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C158" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D158" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E158" s="0" t="s">
-        <v>3</v>
+      <c r="B158" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="B159" s="0" t="s">
+      <c r="A159" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C159" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E159" s="0" t="s">
-        <v>3</v>
+      <c r="B159" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="B160" s="0" t="s">
+      <c r="A160" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C160" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E160" s="0" t="s">
-        <v>3</v>
+      <c r="B160" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="B161" s="0" t="s">
+      <c r="A161" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C161" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D161" s="0" t="s">
+      <c r="B161" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="B162" s="0" t="s">
+      <c r="A162" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C162" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D162" s="0" t="s">
+      <c r="B162" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="B163" s="0" t="s">
+      <c r="A163" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C163" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D163" s="0" t="s">
+      <c r="B163" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="B164" s="0" t="s">
+      <c r="A164" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C164" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D164" s="0" t="s">
+      <c r="B164" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="B165" s="0" t="s">
+      <c r="A165" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C165" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D165" s="0" t="s">
+      <c r="B165" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="B166" s="0" t="s">
+      <c r="A166" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C166" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D166" s="0" t="s">
+      <c r="B166" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="B167" s="0" t="s">
+      <c r="A167" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C167" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D167" s="0" t="s">
+      <c r="B167" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="B168" s="0" t="s">
+      <c r="A168" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C168" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D168" s="0" t="s">
+      <c r="B168" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+      <c r="A169" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B169" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="C169" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D169" s="0" t="s">
+      <c r="C169" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="B170" s="0" t="s">
+      <c r="A170" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C170" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D170" s="0" t="s">
+      <c r="B170" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="B171" s="0" t="s">
+      <c r="A171" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C171" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D171" s="0" t="s">
+      <c r="B171" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="B172" s="0" t="s">
+      <c r="A172" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C172" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D172" s="0" t="s">
+      <c r="B172" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="B173" s="0" t="s">
+      <c r="A173" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C173" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D173" s="0" t="s">
+      <c r="B173" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="B174" s="0" t="s">
+      <c r="A174" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C174" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D174" s="0" t="s">
+      <c r="B174" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="B175" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="C175" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D175" s="0" t="s">
+      <c r="A175" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="B176" s="0" t="s">
+      <c r="A176" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C176" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D176" s="0" t="s">
+      <c r="B176" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="B177" s="0" t="s">
+      <c r="A177" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C177" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E177" s="0" t="s">
-        <v>3</v>
+      <c r="B177" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="B178" s="0" t="s">
+      <c r="A178" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C178" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D178" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E178" s="0" t="s">
-        <v>3</v>
+      <c r="B178" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="B179" s="0" t="s">
+      <c r="A179" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C179" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D179" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E179" s="0" t="s">
-        <v>3</v>
+      <c r="B179" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="B180" s="0" t="s">
+      <c r="A180" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C180" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D180" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E180" s="0" t="s">
-        <v>3</v>
+      <c r="B180" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="B181" s="0" t="s">
+      <c r="A181" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C181" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E181" s="0" t="s">
-        <v>3</v>
+      <c r="B181" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="B182" s="0" t="s">
+      <c r="A182" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C182" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E182" s="0" t="s">
-        <v>3</v>
+      <c r="B182" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="B183" s="0" t="s">
+      <c r="A183" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C183" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D183" s="0" t="s">
+      <c r="B183" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="B184" s="0" t="s">
+      <c r="A184" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C184" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E184" s="0" t="s">
-        <v>3</v>
+      <c r="B184" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="B185" s="0" t="s">
+      <c r="A185" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C185" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D185" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E185" s="0" t="s">
-        <v>3</v>
+      <c r="B185" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="B186" s="0" t="s">
+      <c r="A186" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C186" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D186" s="0" t="s">
+      <c r="B186" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="B187" s="0" t="s">
+      <c r="A187" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C187" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D187" s="0" t="s">
+      <c r="B187" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="B188" s="0" t="s">
+      <c r="A188" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C188" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="D188" s="0" t="s">
+      <c r="B188" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="B189" s="0" t="s">
+      <c r="A189" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C189" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D189" s="0" t="s">
+      <c r="B189" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="B190" s="0" t="s">
+      <c r="A190" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C190" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E190" s="0" t="s">
-        <v>3</v>
+      <c r="B190" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="B191" s="0" t="s">
+      <c r="A191" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C191" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D191" s="0" t="s">
+      <c r="B191" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="B192" s="0" t="s">
+      <c r="A192" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C192" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D192" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E192" s="0" t="s">
-        <v>3</v>
+      <c r="B192" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="B193" s="0" t="s">
+      <c r="A193" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C193" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="D193" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E193" s="0" t="s">
-        <v>3</v>
+      <c r="B193" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="B194" s="0" t="s">
+      <c r="A194" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C194" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D194" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E194" s="0" t="s">
-        <v>3</v>
+      <c r="B194" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="B195" s="0" t="s">
+      <c r="A195" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C195" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D195" s="0" t="s">
+      <c r="B195" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="B196" s="0" t="s">
+      <c r="A196" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C196" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D196" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E196" s="0" t="s">
-        <v>3</v>
+      <c r="B196" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="B197" s="0" t="s">
+      <c r="A197" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C197" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D197" s="0" t="s">
+      <c r="B197" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="B198" s="0" t="s">
+      <c r="A198" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C198" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D198" s="0" t="s">
+      <c r="B198" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="B199" s="0" t="s">
+      <c r="A199" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C199" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D199" s="0" t="s">
+      <c r="B199" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="B200" s="0" t="s">
+      <c r="A200" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C200" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E200" s="0" t="s">
-        <v>3</v>
+      <c r="B200" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="B201" s="0" t="s">
+      <c r="A201" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C201" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E201" s="0" t="s">
-        <v>3</v>
+      <c r="B201" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="B202" s="0" t="s">
+      <c r="A202" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C202" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E202" s="0" t="s">
-        <v>3</v>
+      <c r="B202" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="B203" s="0" t="s">
+      <c r="A203" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C203" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E203" s="0" t="s">
-        <v>3</v>
+      <c r="B203" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="B204" s="0" t="s">
+      <c r="A204" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C204" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E204" s="0" t="s">
-        <v>3</v>
+      <c r="B204" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="B205" s="0" t="s">
+      <c r="A205" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C205" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E205" s="0" t="s">
-        <v>3</v>
+      <c r="B205" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="B206" s="0" t="s">
+      <c r="A206" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C206" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D206" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E206" s="0" t="s">
-        <v>3</v>
+      <c r="B206" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="B207" s="0" t="s">
+      <c r="A207" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C207" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D207" s="0" t="s">
+      <c r="B207" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="B208" s="0" t="s">
+      <c r="A208" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C208" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D208" s="0" t="s">
+      <c r="B208" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="B209" s="0" t="s">
+      <c r="A209" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C209" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E209" s="0" t="s">
-        <v>3</v>
+      <c r="B209" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="B210" s="0" t="s">
+      <c r="A210" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C210" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D210" s="0" t="s">
+      <c r="B210" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="B211" s="0" t="s">
+      <c r="A211" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C211" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E211" s="0" t="s">
-        <v>3</v>
+      <c r="B211" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="B212" s="0" t="s">
+      <c r="A212" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C212" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D212" s="0" t="s">
+      <c r="B212" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="B213" s="0" t="s">
+      <c r="A213" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C213" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E213" s="0" t="s">
-        <v>3</v>
+      <c r="B213" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="B214" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="C214" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D214" s="0" t="s">
+      <c r="A214" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="B215" s="0" t="s">
+      <c r="A215" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C215" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D215" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E215" s="0" t="s">
-        <v>3</v>
+      <c r="B215" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="B216" s="0" t="s">
+      <c r="A216" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C216" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D216" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E216" s="0" t="s">
-        <v>3</v>
+      <c r="B216" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="B217" s="0" t="s">
+      <c r="A217" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C217" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D217" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E217" s="0" t="s">
-        <v>3</v>
+      <c r="B217" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="B218" s="0" t="s">
+      <c r="A218" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C218" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D218" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E218" s="0" t="s">
-        <v>3</v>
+      <c r="B218" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="B219" s="0" t="s">
+      <c r="A219" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C219" s="0" t="s">
+      <c r="B219" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D219" s="0" t="s">
+      <c r="C219" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D219" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
+      <c r="A220" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B220" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="C220" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E220" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="B221" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="C221" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E221" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="B222" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="C222" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D222" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E222" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="B223" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="C223" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D223" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E223" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="B224" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="C224" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="E224" s="0" t="s">
-        <v>3</v>
+      <c r="E224" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="B225" s="0" t="s">
+      <c r="A225" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C225" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E225" s="0" t="s">
-        <v>3</v>
+      <c r="B225" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="B226" s="0" t="s">
+      <c r="A226" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C226" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D226" s="0" t="s">
+      <c r="B226" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D226" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="B227" s="0" t="s">
+      <c r="A227" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C227" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D227" s="0" t="s">
+      <c r="B227" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D227" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="B228" s="0" t="s">
+      <c r="A228" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C228" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D228" s="0" t="s">
+      <c r="B228" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D228" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B229" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="C229" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D229" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E229" s="0" t="s">
-        <v>3</v>
+      <c r="A229" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="B230" s="0" t="s">
+      <c r="A230" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C230" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D230" s="0" t="s">
+      <c r="B230" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="B231" s="0" t="s">
+      <c r="A231" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C231" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D231" s="0" t="s">
+      <c r="B231" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D231" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="B232" s="0" t="s">
+      <c r="A232" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C232" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D232" s="0" t="s">
+      <c r="B232" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="B233" s="0" t="s">
+      <c r="A233" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C233" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D233" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E233" s="0" t="s">
-        <v>3</v>
+      <c r="B233" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="B234" s="0" t="s">
+      <c r="A234" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C234" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D234" s="0" t="s">
+      <c r="B234" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="B235" s="0" t="s">
+      <c r="A235" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C235" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D235" s="0" t="s">
+      <c r="B235" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D235" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="B236" s="0" t="s">
+      <c r="A236" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C236" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D236" s="0" t="s">
+      <c r="B236" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="B237" s="0" t="s">
+      <c r="A237" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C237" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D237" s="0" t="s">
+      <c r="B237" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D237" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="B238" s="0" t="s">
+      <c r="A238" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C238" s="0" t="s">
+      <c r="B238" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="D238" s="0" t="s">
+      <c r="C238" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D238" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="B239" s="0" t="str">
+      <c r="A239" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B239" s="1" t="str">
         <f aca="false">B238</f>
         <v>6.3.1</v>
       </c>
-      <c r="C239" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D239" s="0" t="s">
+      <c r="C239" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D239" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="B240" s="0" t="s">
+      <c r="A240" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C240" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D240" s="0" t="s">
+      <c r="B240" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D240" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="B241" s="0" t="s">
+      <c r="A241" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C241" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E241" s="0" t="s">
-        <v>3</v>
+      <c r="B241" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="B242" s="0" t="s">
+      <c r="A242" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C242" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D242" s="0" t="s">
+      <c r="B242" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D242" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="B243" s="0" t="s">
+      <c r="A243" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C243" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D243" s="0" t="s">
+      <c r="B243" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D243" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
-        <v>477</v>
-      </c>
-      <c r="B244" s="0" t="s">
+      <c r="A244" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C244" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D244" s="0" t="s">
+      <c r="B244" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D244" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="B245" s="0" t="s">
+      <c r="A245" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C245" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E245" s="0" t="s">
-        <v>3</v>
+      <c r="B245" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="B246" s="0" t="s">
+      <c r="A246" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C246" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E246" s="0" t="s">
-        <v>3</v>
+      <c r="B246" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B247" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="C247" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D247" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E247" s="0" t="s">
-        <v>3</v>
+      <c r="A247" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="B248" s="0" t="s">
+      <c r="A248" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C248" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D248" s="0" t="s">
+      <c r="B248" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D248" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="B249" s="0" t="s">
+      <c r="A249" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C249" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D249" s="0" t="s">
+      <c r="B249" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D249" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B250" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="C250" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D250" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E250" s="0" t="s">
-        <v>3</v>
+      <c r="A250" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="B251" s="0" t="s">
+      <c r="A251" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C251" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D251" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E251" s="0" t="s">
-        <v>3</v>
+      <c r="B251" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="B252" s="0" t="s">
+      <c r="A252" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C252" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E252" s="0" t="s">
-        <v>3</v>
+      <c r="B252" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="B253" s="0" t="s">
+      <c r="A253" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C253" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D253" s="0" t="s">
+      <c r="B253" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D253" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="B254" s="0" t="s">
+      <c r="A254" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C254" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D254" s="0" t="s">
+      <c r="B254" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D254" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="B255" s="0" t="s">
+      <c r="A255" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C255" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E255" s="0" t="s">
-        <v>3</v>
+      <c r="B255" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="B256" s="0" t="s">
+      <c r="A256" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C256" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D256" s="0" t="s">
+      <c r="B256" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="B257" s="0" t="s">
+      <c r="A257" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C257" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="E257" s="0" t="s">
-        <v>3</v>
+      <c r="B257" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="B258" s="0" t="s">
+      <c r="A258" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C258" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="D258" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E258" s="0" t="s">
-        <v>3</v>
+      <c r="B258" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="B259" s="0" t="s">
+      <c r="A259" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C259" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D259" s="0" t="s">
+      <c r="B259" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="B260" s="0" t="s">
+      <c r="A260" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C260" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D260" s="0" t="s">
+      <c r="B260" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D260" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="B261" s="0" t="s">
+      <c r="A261" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C261" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D261" s="0" t="s">
+      <c r="B261" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D261" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="B262" s="0" t="s">
+      <c r="A262" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C262" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D262" s="0" t="s">
+      <c r="B262" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="B263" s="0" t="s">
+      <c r="A263" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C263" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D263" s="0" t="s">
+      <c r="B263" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D263" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="B264" s="0" t="s">
+      <c r="A264" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C264" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D264" s="0" t="s">
+      <c r="B264" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D264" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="B265" s="0" t="s">
+      <c r="A265" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C265" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D265" s="0" t="s">
+      <c r="B265" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D265" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="B266" s="0" t="s">
+      <c r="A266" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C266" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D266" s="0" t="s">
+      <c r="B266" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D266" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="B267" s="0" t="s">
+      <c r="A267" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C267" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D267" s="0" t="s">
+      <c r="B267" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="B268" s="0" t="s">
+      <c r="A268" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C268" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E268" s="0" t="s">
-        <v>3</v>
+      <c r="B268" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="B269" s="0" t="s">
+      <c r="A269" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C269" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D269" s="0" t="s">
+      <c r="B269" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D269" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="B270" s="0" t="s">
+      <c r="A270" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C270" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D270" s="0" t="s">
+      <c r="B270" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D270" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="B271" s="0" t="s">
+      <c r="A271" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C271" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D271" s="0" t="s">
+      <c r="B271" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="B272" s="0" t="s">
+      <c r="A272" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C272" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D272" s="0" t="s">
+      <c r="B272" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="B273" s="0" t="s">
+      <c r="A273" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C273" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D273" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E273" s="0" t="s">
-        <v>3</v>
+      <c r="B273" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B274" s="0" t="s">
+      <c r="A274" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C274" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D274" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E274" s="0" t="s">
-        <v>3</v>
+      <c r="B274" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="B275" s="0" t="s">
+      <c r="A275" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C275" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D275" s="0" t="s">
+      <c r="B275" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D275" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="B276" s="0" t="s">
+      <c r="A276" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C276" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D276" s="0" t="s">
+      <c r="B276" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D276" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B277" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="C277" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D277" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E277" s="0" t="s">
-        <v>3</v>
+      <c r="A277" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="B278" s="0" t="s">
+      <c r="A278" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C278" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D278" s="0" t="s">
+      <c r="B278" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D278" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="B279" s="0" t="s">
+      <c r="A279" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C279" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D279" s="0" t="s">
+      <c r="B279" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D279" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="B280" s="0" t="s">
+      <c r="A280" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="C280" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D280" s="0" t="s">
+      <c r="B280" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D280" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="B281" s="0" t="s">
+      <c r="A281" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C281" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D281" s="0" t="s">
+      <c r="B281" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D281" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="0" t="s">
-        <v>550</v>
-      </c>
-      <c r="B282" s="0" t="s">
+      <c r="A282" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="C282" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D282" s="0" t="s">
+      <c r="B282" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D282" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="B283" s="0" t="s">
+      <c r="A283" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C283" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D283" s="0" t="s">
+      <c r="B283" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D283" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="B284" s="0" t="s">
+      <c r="A284" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C284" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D284" s="0" t="s">
+      <c r="B284" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D284" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="0" t="s">
-        <v>556</v>
-      </c>
-      <c r="B285" s="0" t="s">
+      <c r="A285" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C285" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D285" s="0" t="s">
+      <c r="B285" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D285" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="B286" s="0" t="s">
+      <c r="A286" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C286" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D286" s="0" t="s">
+      <c r="B286" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D286" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="0" t="s">
-        <v>560</v>
-      </c>
-      <c r="B287" s="0" t="s">
+      <c r="A287" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C287" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E287" s="0" t="s">
-        <v>3</v>
+      <c r="B287" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="0" t="s">
-        <v>562</v>
-      </c>
-      <c r="B288" s="0" t="s">
+      <c r="A288" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C288" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D288" s="0" t="s">
+      <c r="B288" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D288" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="B289" s="0" t="s">
+      <c r="A289" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C289" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D289" s="0" t="s">
+      <c r="B289" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D289" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="B290" s="0" t="s">
+      <c r="A290" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C290" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D290" s="0" t="s">
+      <c r="B290" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D290" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="s">
-        <v>568</v>
-      </c>
-      <c r="B291" s="0" t="s">
+      <c r="A291" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C291" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D291" s="0" t="s">
+      <c r="B291" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D291" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="B292" s="0" t="s">
+      <c r="A292" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C292" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D292" s="0" t="s">
+      <c r="B292" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D292" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="B293" s="0" t="s">
+      <c r="A293" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C293" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D293" s="0" t="s">
+      <c r="B293" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D293" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="B294" s="0" t="s">
+      <c r="A294" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C294" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D294" s="0" t="s">
+      <c r="B294" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D294" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0" t="s">
-        <v>576</v>
-      </c>
-      <c r="B295" s="0" t="s">
+      <c r="A295" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C295" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D295" s="0" t="s">
+      <c r="B295" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D295" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="B296" s="0" t="s">
+      <c r="A296" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C296" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D296" s="0" t="s">
+      <c r="B296" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D296" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="s">
-        <v>580</v>
-      </c>
-      <c r="B297" s="0" t="s">
+      <c r="A297" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C297" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D297" s="0" t="s">
+      <c r="B297" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D297" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="0" t="s">
-        <v>582</v>
-      </c>
-      <c r="B298" s="0" t="s">
+      <c r="A298" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C298" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D298" s="0" t="s">
+      <c r="B298" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D298" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0" t="s">
-        <v>584</v>
-      </c>
-      <c r="B299" s="0" t="s">
+      <c r="A299" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C299" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D299" s="0" t="s">
+      <c r="B299" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D299" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
-        <v>586</v>
-      </c>
-      <c r="B300" s="0" t="s">
+      <c r="A300" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C300" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D300" s="0" t="s">
+      <c r="B300" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D300" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
-        <v>588</v>
-      </c>
-      <c r="B301" s="0" t="s">
+      <c r="A301" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C301" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D301" s="0" t="s">
+      <c r="B301" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D301" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="0" t="s">
-        <v>590</v>
-      </c>
-      <c r="B302" s="0" t="s">
+      <c r="A302" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C302" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D302" s="0" t="s">
+      <c r="B302" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D302" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0" t="s">
-        <v>592</v>
-      </c>
-      <c r="B303" s="0" t="s">
+      <c r="A303" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C303" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D303" s="0" t="s">
+      <c r="B303" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D303" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="0" t="s">
-        <v>594</v>
-      </c>
-      <c r="B304" s="0" t="s">
+      <c r="A304" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C304" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D304" s="0" t="s">
+      <c r="B304" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D304" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B305" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="C305" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D305" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E305" s="0" t="s">
-        <v>3</v>
+      <c r="A305" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="B306" s="0" t="s">
-        <v>597</v>
-      </c>
-      <c r="C306" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D306" s="0" t="s">
+      <c r="A306" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D306" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="0" t="s">
-        <v>598</v>
-      </c>
-      <c r="B307" s="0" t="s">
+      <c r="A307" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C307" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D307" s="0" t="s">
+      <c r="B307" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D307" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="0" t="s">
-        <v>600</v>
-      </c>
-      <c r="B308" s="0" t="s">
+      <c r="A308" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C308" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E308" s="0" t="s">
-        <v>3</v>
+      <c r="B308" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B309" s="0" t="s">
+      <c r="A309" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C309" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="D309" s="0" t="s">
+      <c r="B309" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D309" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="B310" s="0" t="s">
+      <c r="A310" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C310" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D310" s="0" t="s">
+      <c r="B310" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D310" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0" t="s">
-        <v>606</v>
-      </c>
-      <c r="B311" s="0" t="s">
+      <c r="A311" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="C311" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D311" s="0" t="s">
+      <c r="B311" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D311" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="0" t="s">
-        <v>608</v>
-      </c>
-      <c r="B312" s="0" t="s">
+      <c r="A312" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C312" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D312" s="0" t="s">
+      <c r="B312" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D312" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="B313" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="C313" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D313" s="0" t="s">
+      <c r="A313" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D313" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="0" t="s">
-        <v>580</v>
-      </c>
-      <c r="B314" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="C314" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D314" s="0" t="s">
+      <c r="A314" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D314" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="0" t="s">
-        <v>612</v>
-      </c>
-      <c r="B315" s="0" t="s">
+      <c r="A315" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="C315" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D315" s="0" t="s">
+      <c r="B315" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D315" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="0" t="s">
-        <v>584</v>
-      </c>
-      <c r="B316" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="C316" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D316" s="0" t="s">
+      <c r="A316" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D316" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="0" t="s">
-        <v>615</v>
-      </c>
-      <c r="B317" s="0" t="s">
+      <c r="A317" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C317" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D317" s="0" t="s">
+      <c r="B317" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D317" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="B318" s="0" t="s">
+      <c r="A318" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C318" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D318" s="0" t="s">
+      <c r="B318" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D318" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="0" t="s">
-        <v>590</v>
-      </c>
-      <c r="B319" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="C319" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D319" s="0" t="s">
+      <c r="A319" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D319" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="0" t="s">
-        <v>592</v>
-      </c>
-      <c r="B320" s="0" t="s">
-        <v>620</v>
-      </c>
-      <c r="C320" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D320" s="0" t="s">
+      <c r="A320" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D320" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="0" t="s">
-        <v>621</v>
-      </c>
-      <c r="B321" s="0" t="s">
+      <c r="A321" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="C321" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D321" s="0" t="s">
+      <c r="B321" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D321" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="B322" s="0" t="s">
-        <v>623</v>
-      </c>
-      <c r="C322" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D322" s="0" t="s">
+      <c r="A322" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D322" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="B323" s="0" t="s">
+      <c r="A323" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C323" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E323" s="0" t="s">
-        <v>3</v>
+      <c r="B323" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="0" t="s">
-        <v>562</v>
-      </c>
-      <c r="B324" s="0" t="s">
-        <v>626</v>
-      </c>
-      <c r="C324" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D324" s="0" t="s">
+      <c r="A324" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D324" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="B325" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="C325" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D325" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E325" s="0" t="s">
-        <v>3</v>
+      <c r="A325" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="B326" s="0" t="s">
+      <c r="A326" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C326" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D326" s="0" t="s">
+      <c r="B326" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D326" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="B327" s="0" t="s">
+      <c r="A327" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="C327" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D327" s="0" t="s">
+      <c r="B327" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D327" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="B328" s="0" t="s">
+      <c r="A328" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="C328" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D328" s="0" t="s">
+      <c r="B328" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D328" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="B329" s="0" t="s">
+      <c r="A329" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="C329" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D329" s="0" t="s">
+      <c r="B329" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D329" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="0" t="s">
-        <v>636</v>
-      </c>
-      <c r="B330" s="0" t="s">
+      <c r="A330" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="C330" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D330" s="0" t="s">
+      <c r="B330" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D330" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="B331" s="0" t="s">
+      <c r="A331" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C331" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D331" s="0" t="s">
+      <c r="B331" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D331" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="0" t="s">
-        <v>640</v>
-      </c>
-      <c r="B332" s="0" t="s">
+      <c r="A332" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="C332" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D332" s="0" t="s">
+      <c r="B332" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D332" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="B333" s="0" t="s">
+      <c r="A333" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="C333" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D333" s="0" t="s">
+      <c r="B333" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D333" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="B334" s="0" t="s">
+      <c r="A334" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C334" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D334" s="0" t="s">
+      <c r="B334" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D334" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="0" t="s">
-        <v>646</v>
-      </c>
-      <c r="B335" s="0" t="s">
+      <c r="A335" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C335" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D335" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E335" s="0" t="s">
-        <v>3</v>
+      <c r="B335" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0" t="s">
-        <v>648</v>
-      </c>
-      <c r="B336" s="0" t="s">
+      <c r="A336" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C336" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="D336" s="0" t="s">
+      <c r="B336" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D336" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0" t="s">
-        <v>650</v>
-      </c>
-      <c r="B337" s="0" t="s">
+      <c r="A337" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="C337" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="D337" s="0" t="s">
+      <c r="B337" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D337" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="0" t="s">
-        <v>652</v>
-      </c>
-      <c r="B338" s="0" t="s">
+      <c r="A338" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="C338" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="D338" s="0" t="s">
+      <c r="B338" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D338" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="B339" s="0" t="s">
+      <c r="A339" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="C339" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="D339" s="0" t="s">
+      <c r="B339" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D339" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="B340" s="0" t="s">
+      <c r="A340" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C340" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D340" s="0" t="s">
+      <c r="B340" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D340" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="0" t="s">
-        <v>658</v>
-      </c>
-      <c r="B341" s="0" t="s">
+      <c r="A341" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="C341" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D341" s="0" t="s">
+      <c r="B341" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D341" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="0" t="s">
-        <v>660</v>
-      </c>
-      <c r="B342" s="0" t="s">
+      <c r="A342" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C342" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D342" s="0" t="s">
+      <c r="B342" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D342" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="0" t="s">
-        <v>662</v>
-      </c>
-      <c r="B343" s="0" t="s">
+      <c r="A343" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="C343" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D343" s="0" t="s">
+      <c r="B343" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D343" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="0" t="s">
-        <v>664</v>
-      </c>
-      <c r="B344" s="0" t="s">
+      <c r="A344" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C344" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D344" s="0" t="s">
+      <c r="B344" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D344" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="B345" s="0" t="s">
+      <c r="A345" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="C345" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D345" s="0" t="s">
+      <c r="B345" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D345" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="0" t="s">
-        <v>668</v>
-      </c>
-      <c r="B346" s="0" t="s">
+      <c r="A346" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C346" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D346" s="0" t="s">
+      <c r="B346" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D346" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B347" s="0" t="s">
-        <v>670</v>
-      </c>
-      <c r="C347" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D347" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E347" s="0" t="s">
-        <v>3</v>
+      <c r="A347" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="0" t="s">
-        <v>671</v>
-      </c>
-      <c r="B348" s="0" t="s">
+      <c r="A348" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="C348" s="0" t="s">
+      <c r="B348" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C348" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D348" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E348" s="0" t="s">
-        <v>3</v>
+      <c r="D348" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="0" t="s">
-        <v>673</v>
-      </c>
-      <c r="B349" s="0" t="s">
+      <c r="A349" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="C349" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D349" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E349" s="0" t="s">
-        <v>3</v>
+      <c r="B349" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/app/templates/template_rules_3.xlsx
+++ b/app/templates/template_rules_3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="677">
   <si>
     <t xml:space="preserve">Certificado conformidad MINVU.</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t xml:space="preserve">Especificar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15.1</t>
   </si>
   <si>
     <t xml:space="preserve">Sala de máquinas o de poleas no reservado sólo a personal autorizado.</t>
@@ -2150,8 +2153,8 @@
   </sheetPr>
   <dimension ref="A1:E349"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A322" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E322" activeCellId="52" sqref="E1:E11 E19 E21 E39 E80 E84 E86 E93 E97 E101 E103:E104 E107:E109 E111 E113 E115:E116 E119:E120 E127:E128 E131 E134 E141:E143 E145:E147 E149 E154:E156 E158:E160 E177:E182 E184:E185 E190 E192:E194 E196 E200:E206 E209 E211 E213 E215:E218 E220:E225 E229 E233 E241 E245:E247 E250:E252 E255 E257:E258 E268 E273:E274 E277 E287 E305 E308 E323 E325 E335 E347:E349 E322"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2734,7 +2737,7 @@
         <v>78</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>30</v>
@@ -2748,10 +2751,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>27</v>
@@ -2762,10 +2765,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>33</v>
@@ -2776,10 +2779,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>33</v>
@@ -2790,10 +2793,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>30</v>
@@ -2804,10 +2807,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>33</v>
@@ -2818,10 +2821,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>33</v>
@@ -2832,10 +2835,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>33</v>
@@ -2846,10 +2849,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>33</v>
@@ -2860,10 +2863,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>30</v>
@@ -2874,10 +2877,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>30</v>
@@ -2888,10 +2891,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>30</v>
@@ -2902,10 +2905,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>27</v>
@@ -2916,10 +2919,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>30</v>
@@ -2930,10 +2933,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>30</v>
@@ -2944,10 +2947,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>30</v>
@@ -2958,10 +2961,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>30</v>
@@ -2972,10 +2975,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>30</v>
@@ -2986,10 +2989,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>30</v>
@@ -3000,10 +3003,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>30</v>
@@ -3014,10 +3017,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>33</v>
@@ -3028,10 +3031,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>42</v>
@@ -3042,10 +3045,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>30</v>
@@ -3056,10 +3059,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>33</v>
@@ -3070,10 +3073,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>30</v>
@@ -3084,10 +3087,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>33</v>
@@ -3098,10 +3101,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>30</v>
@@ -3112,10 +3115,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>30</v>
@@ -3126,10 +3129,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>30</v>
@@ -3140,13 +3143,13 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>3</v>
@@ -3154,7 +3157,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B69" s="1" t="str">
         <f aca="false">B68</f>
@@ -3169,10 +3172,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>42</v>
@@ -3183,10 +3186,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>42</v>
@@ -3197,13 +3200,13 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>3</v>
@@ -3211,7 +3214,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B73" s="1" t="str">
         <f aca="false">B72</f>
@@ -3226,10 +3229,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>30</v>
@@ -3240,10 +3243,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>30</v>
@@ -3254,10 +3257,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>30</v>
@@ -3268,10 +3271,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>42</v>
@@ -3282,7 +3285,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B78" s="1" t="str">
         <f aca="false">B77</f>
@@ -3297,13 +3300,13 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>3</v>
@@ -3311,10 +3314,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>42</v>
@@ -3328,10 +3331,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>30</v>
@@ -3342,10 +3345,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>30</v>
@@ -3356,10 +3359,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>30</v>
@@ -3370,10 +3373,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>30</v>
@@ -3387,10 +3390,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>30</v>
@@ -3401,10 +3404,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>30</v>
@@ -3418,10 +3421,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>30</v>
@@ -3432,13 +3435,13 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>3</v>
@@ -3446,10 +3449,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>30</v>
@@ -3460,13 +3463,13 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>3</v>
@@ -3474,10 +3477,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>42</v>
@@ -3488,10 +3491,10 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>42</v>
@@ -3502,10 +3505,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>30</v>
@@ -3516,10 +3519,10 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>42</v>
@@ -3530,10 +3533,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>30</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B96" s="1" t="str">
         <f aca="false">B95</f>
@@ -3559,7 +3562,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B97" s="1" t="str">
         <f aca="false">B96</f>
@@ -3574,10 +3577,10 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>33</v>
@@ -3588,10 +3591,10 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>33</v>
@@ -3602,10 +3605,10 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>30</v>
@@ -3616,10 +3619,10 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>42</v>
@@ -3630,10 +3633,10 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>30</v>
@@ -3644,10 +3647,10 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>30</v>
@@ -3661,7 +3664,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B104" s="1" t="str">
         <f aca="false">B103</f>
@@ -3676,10 +3679,10 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>30</v>
@@ -3690,10 +3693,10 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>42</v>
@@ -3704,10 +3707,10 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>33</v>
@@ -3718,10 +3721,10 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>30</v>
@@ -3735,10 +3738,10 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>30</v>
@@ -3752,10 +3755,10 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>33</v>
@@ -3766,10 +3769,10 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>42</v>
@@ -3780,10 +3783,10 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>42</v>
@@ -3794,10 +3797,10 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>42</v>
@@ -3811,10 +3814,10 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>42</v>
@@ -3825,10 +3828,10 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>42</v>
@@ -3839,10 +3842,10 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>30</v>
@@ -3853,10 +3856,10 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>30</v>
@@ -3867,10 +3870,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>42</v>
@@ -3881,10 +3884,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>42</v>
@@ -3895,10 +3898,10 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>42</v>
@@ -3909,10 +3912,10 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>30</v>
@@ -3923,10 +3926,10 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>30</v>
@@ -3937,10 +3940,10 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>30</v>
@@ -3951,10 +3954,10 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>42</v>
@@ -3965,10 +3968,10 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>30</v>
@@ -3979,13 +3982,13 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>3</v>
@@ -3993,10 +3996,10 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>42</v>
@@ -4007,10 +4010,10 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>30</v>
@@ -4024,10 +4027,10 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>33</v>
@@ -4038,10 +4041,10 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>33</v>
@@ -4052,10 +4055,10 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>30</v>
@@ -4069,10 +4072,10 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>33</v>
@@ -4083,10 +4086,10 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>33</v>
@@ -4097,10 +4100,10 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>33</v>
@@ -4114,10 +4117,10 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>33</v>
@@ -4128,10 +4131,10 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>30</v>
@@ -4142,10 +4145,10 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>30</v>
@@ -4156,10 +4159,10 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>30</v>
@@ -4170,10 +4173,10 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>30</v>
@@ -4184,10 +4187,10 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>30</v>
@@ -4198,7 +4201,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B141" s="1" t="str">
         <f aca="false">B140</f>
@@ -4213,10 +4216,10 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>30</v>
@@ -4230,10 +4233,10 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>42</v>
@@ -4244,10 +4247,10 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>30</v>
@@ -4258,10 +4261,10 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>42</v>
@@ -4275,10 +4278,10 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>42</v>
@@ -4292,10 +4295,10 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>42</v>
@@ -4309,10 +4312,10 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>42</v>
@@ -4323,10 +4326,10 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>42</v>
@@ -4340,10 +4343,10 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>30</v>
@@ -4354,10 +4357,10 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>42</v>
@@ -4368,10 +4371,10 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>30</v>
@@ -4382,10 +4385,10 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>42</v>
@@ -4396,10 +4399,10 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>30</v>
@@ -4410,10 +4413,10 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>30</v>
@@ -4424,10 +4427,10 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>42</v>
@@ -4438,7 +4441,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B157" s="1" t="str">
         <f aca="false">B156</f>
@@ -4453,10 +4456,10 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>42</v>
@@ -4470,10 +4473,10 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>30</v>
@@ -4484,10 +4487,10 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>42</v>
@@ -4498,10 +4501,10 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>42</v>
@@ -4512,10 +4515,10 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>42</v>
@@ -4526,10 +4529,10 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>42</v>
@@ -4540,10 +4543,10 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>42</v>
@@ -4554,10 +4557,10 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>42</v>
@@ -4568,10 +4571,10 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>42</v>
@@ -4582,10 +4585,10 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>30</v>
@@ -4596,10 +4599,10 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>30</v>
@@ -4610,10 +4613,10 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>30</v>
@@ -4624,10 +4627,10 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>30</v>
@@ -4638,10 +4641,10 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>30</v>
@@ -4652,10 +4655,10 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>30</v>
@@ -4666,10 +4669,10 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>33</v>
@@ -4680,10 +4683,10 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>30</v>
@@ -4694,10 +4697,10 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>30</v>
@@ -4708,10 +4711,10 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>30</v>
@@ -4722,10 +4725,10 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>30</v>
@@ -4736,10 +4739,10 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>30</v>
@@ -4753,10 +4756,10 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>33</v>
@@ -4770,10 +4773,10 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>33</v>
@@ -4787,10 +4790,10 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>30</v>
@@ -4801,10 +4804,10 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>33</v>
@@ -4815,10 +4818,10 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>30</v>
@@ -4829,10 +4832,10 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>30</v>
@@ -4843,10 +4846,10 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>42</v>
@@ -4860,10 +4863,10 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>42</v>
@@ -4874,10 +4877,10 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>42</v>
@@ -4888,13 +4891,13 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>3</v>
@@ -4902,10 +4905,10 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>30</v>
@@ -4916,10 +4919,10 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>33</v>
@@ -4930,10 +4933,10 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>33</v>
@@ -4944,10 +4947,10 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>33</v>
@@ -4961,13 +4964,13 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>3</v>
@@ -4978,10 +4981,10 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>30</v>
@@ -4995,10 +4998,10 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>33</v>
@@ -5009,10 +5012,10 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>42</v>
@@ -5026,10 +5029,10 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>42</v>
@@ -5040,10 +5043,10 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>33</v>
@@ -5054,10 +5057,10 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>33</v>
@@ -5068,10 +5071,10 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>42</v>
@@ -5082,10 +5085,10 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>42</v>
@@ -5096,10 +5099,10 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>42</v>
@@ -5110,10 +5113,10 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>42</v>
@@ -5124,10 +5127,10 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>42</v>
@@ -5138,10 +5141,10 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>30</v>
@@ -5152,13 +5155,13 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>3</v>
@@ -5169,10 +5172,10 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>30</v>
@@ -5183,10 +5186,10 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>30</v>
@@ -5197,10 +5200,10 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>33</v>
@@ -5211,10 +5214,10 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>30</v>
@@ -5225,10 +5228,10 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>30</v>
@@ -5239,10 +5242,10 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>30</v>
@@ -5253,10 +5256,10 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>30</v>
@@ -5267,10 +5270,10 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>30</v>
@@ -5281,10 +5284,10 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>30</v>
@@ -5298,10 +5301,10 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>30</v>
@@ -5315,10 +5318,10 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>30</v>
@@ -5332,10 +5335,10 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>42</v>
@@ -5349,13 +5352,13 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>3</v>
@@ -5363,10 +5366,10 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>42</v>
@@ -5377,10 +5380,10 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>42</v>
@@ -5391,10 +5394,10 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>30</v>
@@ -5408,13 +5411,13 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>3</v>
@@ -5425,13 +5428,13 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>4</v>
@@ -5439,10 +5442,10 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>42</v>
@@ -5453,10 +5456,10 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>42</v>
@@ -5467,10 +5470,10 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>42</v>
@@ -5481,10 +5484,10 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>42</v>
@@ -5495,10 +5498,10 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>30</v>
@@ -5512,10 +5515,10 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>30</v>
@@ -5526,10 +5529,10 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>30</v>
@@ -5540,10 +5543,10 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>30</v>
@@ -5554,10 +5557,10 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>30</v>
@@ -5571,10 +5574,10 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>30</v>
@@ -5585,10 +5588,10 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>33</v>
@@ -5599,10 +5602,10 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>30</v>
@@ -5613,10 +5616,10 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>30</v>
@@ -5627,13 +5630,13 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>3</v>
@@ -5641,7 +5644,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B239" s="1" t="str">
         <f aca="false">B238</f>
@@ -5656,10 +5659,10 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>42</v>
@@ -5670,10 +5673,10 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>42</v>
@@ -5684,10 +5687,10 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>30</v>
@@ -5698,10 +5701,10 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>30</v>
@@ -5712,10 +5715,10 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>42</v>
@@ -5726,10 +5729,10 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>30</v>
@@ -5740,10 +5743,10 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>42</v>
@@ -5754,10 +5757,10 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>30</v>
@@ -5771,10 +5774,10 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>33</v>
@@ -5785,10 +5788,10 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>33</v>
@@ -5799,10 +5802,10 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>30</v>
@@ -5816,10 +5819,10 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>30</v>
@@ -5833,10 +5836,10 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>30</v>
@@ -5847,10 +5850,10 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>42</v>
@@ -5861,10 +5864,10 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>30</v>
@@ -5875,10 +5878,10 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>42</v>
@@ -5889,10 +5892,10 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>30</v>
@@ -5903,13 +5906,13 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>4</v>
@@ -5917,13 +5920,13 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>3</v>
@@ -5934,10 +5937,10 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>30</v>
@@ -5948,10 +5951,10 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>42</v>
@@ -5962,10 +5965,10 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>30</v>
@@ -5976,10 +5979,10 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>42</v>
@@ -5990,10 +5993,10 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>30</v>
@@ -6004,10 +6007,10 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>30</v>
@@ -6018,10 +6021,10 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>30</v>
@@ -6032,10 +6035,10 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>42</v>
@@ -6046,10 +6049,10 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>42</v>
@@ -6060,10 +6063,10 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>42</v>
@@ -6074,10 +6077,10 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>42</v>
@@ -6088,10 +6091,10 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>42</v>
@@ -6102,10 +6105,10 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>30</v>
@@ -6116,10 +6119,10 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>30</v>
@@ -6130,10 +6133,10 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>42</v>
@@ -6147,10 +6150,10 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>42</v>
@@ -6164,10 +6167,10 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>30</v>
@@ -6178,10 +6181,10 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>42</v>
@@ -6192,10 +6195,10 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>30</v>
@@ -6209,10 +6212,10 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>33</v>
@@ -6223,10 +6226,10 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>30</v>
@@ -6237,10 +6240,10 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>30</v>
@@ -6251,10 +6254,10 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>30</v>
@@ -6265,10 +6268,10 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>42</v>
@@ -6279,10 +6282,10 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>42</v>
@@ -6293,10 +6296,10 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>42</v>
@@ -6307,10 +6310,10 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>30</v>
@@ -6321,10 +6324,10 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>30</v>
@@ -6335,10 +6338,10 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>30</v>
@@ -6349,10 +6352,10 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>33</v>
@@ -6363,10 +6366,10 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>30</v>
@@ -6377,10 +6380,10 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>33</v>
@@ -6391,10 +6394,10 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>33</v>
@@ -6405,10 +6408,10 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>30</v>
@@ -6419,10 +6422,10 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>30</v>
@@ -6433,10 +6436,10 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>30</v>
@@ -6447,10 +6450,10 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>30</v>
@@ -6461,10 +6464,10 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>30</v>
@@ -6475,10 +6478,10 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>30</v>
@@ -6489,10 +6492,10 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>42</v>
@@ -6503,10 +6506,10 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>30</v>
@@ -6517,10 +6520,10 @@
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>30</v>
@@ -6531,10 +6534,10 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>30</v>
@@ -6545,10 +6548,10 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>30</v>
@@ -6559,10 +6562,10 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>33</v>
@@ -6573,10 +6576,10 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>30</v>
@@ -6587,10 +6590,10 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>30</v>
@@ -6604,10 +6607,10 @@
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>33</v>
@@ -6618,10 +6621,10 @@
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>30</v>
@@ -6632,10 +6635,10 @@
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>30</v>
@@ -6646,13 +6649,13 @@
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>3</v>
@@ -6660,10 +6663,10 @@
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>42</v>
@@ -6674,10 +6677,10 @@
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>42</v>
@@ -6688,10 +6691,10 @@
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>30</v>
@@ -6702,10 +6705,10 @@
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>30</v>
@@ -6716,10 +6719,10 @@
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>30</v>
@@ -6730,10 +6733,10 @@
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>42</v>
@@ -6744,10 +6747,10 @@
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>30</v>
@@ -6758,10 +6761,10 @@
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>30</v>
@@ -6772,10 +6775,10 @@
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>30</v>
@@ -6786,10 +6789,10 @@
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>30</v>
@@ -6800,10 +6803,10 @@
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>30</v>
@@ -6814,10 +6817,10 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>33</v>
@@ -6828,10 +6831,10 @@
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>30</v>
@@ -6842,10 +6845,10 @@
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>30</v>
@@ -6856,10 +6859,10 @@
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>33</v>
@@ -6870,10 +6873,10 @@
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>30</v>
@@ -6887,10 +6890,10 @@
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>30</v>
@@ -6901,10 +6904,10 @@
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>30</v>
@@ -6915,10 +6918,10 @@
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>30</v>
@@ -6929,10 +6932,10 @@
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>30</v>
@@ -6943,10 +6946,10 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>33</v>
@@ -6957,10 +6960,10 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>42</v>
@@ -6971,10 +6974,10 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>42</v>
@@ -6985,10 +6988,10 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>42</v>
@@ -6999,10 +7002,10 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>33</v>
@@ -7013,10 +7016,10 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>30</v>
@@ -7030,13 +7033,13 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>3</v>
@@ -7044,13 +7047,13 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>3</v>
@@ -7058,13 +7061,13 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>3</v>
@@ -7072,13 +7075,13 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>3</v>
@@ -7086,10 +7089,10 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>33</v>
@@ -7100,10 +7103,10 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>42</v>
@@ -7114,10 +7117,10 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>42</v>
@@ -7128,10 +7131,10 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>42</v>
@@ -7142,10 +7145,10 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>30</v>
@@ -7156,10 +7159,10 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>30</v>
@@ -7170,10 +7173,10 @@
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>30</v>
@@ -7184,10 +7187,10 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>30</v>
@@ -7201,10 +7204,10 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>2</v>
@@ -7218,10 +7221,10 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>30</v>

--- a/app/templates/template_rules_3.xlsx
+++ b/app/templates/template_rules_3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="658">
   <si>
     <t xml:space="preserve">Certificado conformidad MINVU.</t>
   </si>
@@ -256,12 +256,6 @@
     <t xml:space="preserve">1.14.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Especificar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sala de máquinas o de poleas no reservado sólo a personal autorizado.</t>
   </si>
   <si>
@@ -535,12 +529,6 @@
     <t xml:space="preserve">2.16.1</t>
   </si>
   <si>
-    <t xml:space="preserve">(Especificar).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Puertas de piso de dimensiones no reglamentarias</t>
   </si>
   <si>
@@ -778,12 +766,6 @@
     <t xml:space="preserve">3.14.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Especificar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Paredes, techo y estructura de piso de cabina no reglamentario</t>
   </si>
   <si>
@@ -1066,12 +1048,6 @@
     <t xml:space="preserve">4.14.7</t>
   </si>
   <si>
-    <t xml:space="preserve">(Especificar)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cable(s) suspensión con un torón roto o alambres rotos en un paso.</t>
   </si>
   <si>
@@ -1372,9 +1348,6 @@
     <t xml:space="preserve">5.17.1</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Características no reglamentarias de los rieles guía de cabina. </t>
   </si>
   <si>
@@ -1477,9 +1450,6 @@
     <t xml:space="preserve">6.6.2</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Holguras superiores a las reglamentarias en ascensores con puerta en cabina (especificar).</t>
   </si>
   <si>
@@ -1492,9 +1462,6 @@
     <t xml:space="preserve">7.3.1</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Existencia de desgaste excesivo de superficies consumibles del sistema de freno (especificar)</t>
   </si>
   <si>
@@ -1651,9 +1618,6 @@
     <t xml:space="preserve">8.15.1</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">La superficie de trabajo en techo de cabina es menor 0,5 x 0,6 m.</t>
   </si>
   <si>
@@ -1816,9 +1780,6 @@
     <t xml:space="preserve">9.2.11.1</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2.12.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.3.1.1</t>
   </si>
   <si>
@@ -1909,9 +1870,6 @@
     <t xml:space="preserve">9.3.7.4</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3.8.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Inexistencia de armario de la maquinaria.</t>
   </si>
   <si>
@@ -1966,12 +1924,6 @@
     <t xml:space="preserve">9.4.2.1</t>
   </si>
   <si>
-    <t xml:space="preserve">(Especificar) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4.3.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">No existe continuidad de tierra o conexiones no reglamentarias.</t>
   </si>
   <si>
@@ -2038,19 +1990,10 @@
     <t xml:space="preserve">10.8.1</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">El ascensor no cumple la reglamentación (desviaciones particulares) con la que fue puesto en servicio, y no existe constancia documental que justifique dicho incumplimiento (especificar).</t>
   </si>
   <si>
     <t xml:space="preserve">11.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (especificar).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2.1</t>
   </si>
 </sst>
 </file>
@@ -2151,10 +2094,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E349"/>
+  <dimension ref="A1:E336"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A307" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2740,13 +2683,10 @@
         <v>79</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2757,7 +2697,7 @@
         <v>81</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
@@ -2785,7 +2725,7 @@
         <v>85</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
@@ -2799,7 +2739,7 @@
         <v>87</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
@@ -2855,7 +2795,7 @@
         <v>95</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>3</v>
@@ -2897,7 +2837,7 @@
         <v>101</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>3</v>
@@ -2911,7 +2851,7 @@
         <v>103</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>3</v>
@@ -3009,7 +2949,7 @@
         <v>117</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>3</v>
@@ -3023,7 +2963,7 @@
         <v>119</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>3</v>
@@ -3037,7 +2977,7 @@
         <v>121</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>3</v>
@@ -3051,7 +2991,7 @@
         <v>123</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>3</v>
@@ -3065,7 +3005,7 @@
         <v>125</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>3</v>
@@ -3079,7 +3019,7 @@
         <v>127</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>3</v>
@@ -3093,7 +3033,7 @@
         <v>129</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>3</v>
@@ -3135,7 +3075,7 @@
         <v>135</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>3</v>
@@ -3143,13 +3083,14 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B68" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="B68" s="1" t="str">
+        <f aca="false">B67</f>
+        <v>2.9.1</v>
+      </c>
       <c r="C68" s="1" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>3</v>
@@ -3157,11 +3098,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B69" s="1" t="str">
-        <f aca="false">B68</f>
-        <v>2.9.1</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>42</v>
@@ -3192,7 +3132,7 @@
         <v>143</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>3</v>
@@ -3202,11 +3142,12 @@
       <c r="A72" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>145</v>
+      <c r="B72" s="1" t="str">
+        <f aca="false">B71</f>
+        <v>2.10.1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>3</v>
@@ -3214,14 +3155,13 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B73" s="1" t="str">
-        <f aca="false">B72</f>
-        <v>2.10.1</v>
-      </c>
       <c r="C73" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>3</v>
@@ -3263,7 +3203,7 @@
         <v>152</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>3</v>
@@ -3273,11 +3213,12 @@
       <c r="A77" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>154</v>
+      <c r="B77" s="1" t="str">
+        <f aca="false">B76</f>
+        <v>2.13.1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>3</v>
@@ -3285,14 +3226,13 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B78" s="1" t="str">
-        <f aca="false">B77</f>
-        <v>2.13.1</v>
-      </c>
       <c r="C78" s="1" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>3</v>
@@ -3300,16 +3240,19 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,13 +3263,10 @@
         <v>160</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3370,6 +3310,9 @@
       <c r="D83" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E83" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
@@ -3384,9 +3327,6 @@
       <c r="D84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
@@ -3410,13 +3350,10 @@
         <v>172</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3441,7 +3378,7 @@
         <v>176</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>3</v>
@@ -3455,7 +3392,7 @@
         <v>178</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>3</v>
@@ -3469,7 +3406,7 @@
         <v>180</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>3</v>
@@ -3483,10 +3420,10 @@
         <v>182</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3513,19 +3450,20 @@
       <c r="C93" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>4</v>
+      <c r="D93" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>188</v>
+      <c r="B94" s="1" t="str">
+        <f aca="false">B93</f>
+        <v>3.2.6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>3</v>
@@ -3533,28 +3471,28 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
+      </c>
+      <c r="B95" s="1" t="str">
+        <f aca="false">B94</f>
+        <v>3.2.6</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>3</v>
+      <c r="E95" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B96" s="1" t="str">
-        <f aca="false">B95</f>
-        <v>3.2.6</v>
+        <v>189</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>3</v>
@@ -3562,17 +3500,16 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="1" t="str">
-        <f aca="false">B96</f>
-        <v>3.2.6</v>
-      </c>
       <c r="C97" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3583,7 +3520,7 @@
         <v>194</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>3</v>
@@ -3597,10 +3534,10 @@
         <v>196</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3625,7 +3562,10 @@
         <v>200</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>4</v>
@@ -3635,46 +3575,43 @@
       <c r="A102" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>202</v>
+      <c r="B102" s="1" t="str">
+        <f aca="false">B101</f>
+        <v>3.4.2</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>3</v>
+      <c r="E102" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="C103" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B104" s="1" t="str">
-        <f aca="false">B103</f>
-        <v>3.4.2</v>
-      </c>
       <c r="C104" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3685,35 +3622,41 @@
         <v>207</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="C106" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="C107" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>4</v>
@@ -3721,19 +3664,16 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>212</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3744,10 +3684,7 @@
         <v>214</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>4</v>
@@ -3761,7 +3698,7 @@
         <v>216</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>3</v>
@@ -3777,6 +3714,9 @@
       <c r="C111" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D111" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E111" s="1" t="s">
         <v>4</v>
       </c>
@@ -3805,9 +3745,6 @@
       <c r="C113" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E113" s="1" t="s">
         <v>4</v>
       </c>
@@ -3820,10 +3757,10 @@
         <v>224</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3834,10 +3771,10 @@
         <v>226</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3848,10 +3785,10 @@
         <v>228</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3862,10 +3799,10 @@
         <v>230</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3878,8 +3815,8 @@
       <c r="C118" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>3</v>
+      <c r="E118" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3890,10 +3827,10 @@
         <v>234</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3904,10 +3841,10 @@
         <v>236</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3932,7 +3869,7 @@
         <v>240</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>3</v>
@@ -3960,7 +3897,7 @@
         <v>244</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>42</v>
+        <v>245</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>3</v>
@@ -3968,27 +3905,27 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>249</v>
+        <v>33</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>3</v>
@@ -4002,10 +3939,10 @@
         <v>251</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4061,7 +3998,7 @@
         <v>259</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>3</v>
@@ -4092,7 +4029,7 @@
         <v>263</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>3</v>
@@ -4106,13 +4043,10 @@
         <v>265</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4123,7 +4057,7 @@
         <v>267</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>3</v>
@@ -4161,57 +4095,60 @@
       <c r="A138" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>273</v>
+      <c r="B138" s="1" t="str">
+        <f aca="false">B137</f>
+        <v>4.2.3</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>3</v>
+      <c r="E138" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="C139" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="C140" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B141" s="1" t="str">
-        <f aca="false">B140</f>
-        <v>4.2.3</v>
-      </c>
       <c r="C141" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>4</v>
+      <c r="D141" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4222,7 +4159,7 @@
         <v>280</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>3</v>
@@ -4241,6 +4178,9 @@
       <c r="C143" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D143" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E143" s="1" t="s">
         <v>4</v>
       </c>
@@ -4253,10 +4193,13 @@
         <v>284</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4272,9 +4215,6 @@
       <c r="D145" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
@@ -4301,13 +4241,10 @@
         <v>290</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4332,13 +4269,10 @@
         <v>294</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4349,7 +4283,7 @@
         <v>296</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>3</v>
@@ -4363,10 +4297,10 @@
         <v>298</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4379,8 +4313,8 @@
       <c r="C152" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>3</v>
+      <c r="E152" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4393,33 +4327,37 @@
       <c r="C153" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>3</v>
+      <c r="E153" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>304</v>
+      <c r="B154" s="1" t="str">
+        <f aca="false">B153</f>
+        <v>4.4.7</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="C155" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>4</v>
@@ -4427,13 +4365,13 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="C156" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>4</v>
@@ -4441,17 +4379,16 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B157" s="1" t="str">
-        <f aca="false">B156</f>
-        <v>4.4.7</v>
-      </c>
       <c r="C157" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>3</v>
+      <c r="E157" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4467,9 +4404,6 @@
       <c r="D158" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E158" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
@@ -4479,10 +4413,10 @@
         <v>313</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4495,8 +4429,8 @@
       <c r="C160" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>4</v>
+      <c r="D160" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4549,7 +4483,7 @@
         <v>323</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>3</v>
@@ -4563,7 +4497,7 @@
         <v>325</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>3</v>
@@ -4574,10 +4508,10 @@
         <v>326</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>3</v>
@@ -4585,10 +4519,10 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>30</v>
@@ -4599,10 +4533,10 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>30</v>
@@ -4613,10 +4547,10 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>30</v>
@@ -4633,7 +4567,7 @@
         <v>334</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>3</v>
@@ -4655,10 +4589,10 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>30</v>
@@ -4669,13 +4603,13 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="C173" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>3</v>
@@ -4683,30 +4617,33 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="C174" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>3</v>
+      <c r="E174" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>283</v>
+        <v>342</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>343</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4717,10 +4654,13 @@
         <v>345</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4745,10 +4685,7 @@
         <v>349</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>4</v>
@@ -4762,13 +4699,10 @@
         <v>351</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4779,10 +4713,7 @@
         <v>353</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>4</v>
@@ -4796,7 +4727,10 @@
         <v>355</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>4</v>
@@ -4810,10 +4744,10 @@
         <v>357</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4824,7 +4758,7 @@
         <v>359</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>3</v>
@@ -4838,10 +4772,10 @@
         <v>361</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>4</v>
+        <v>245</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4852,13 +4786,10 @@
         <v>363</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4869,10 +4800,10 @@
         <v>365</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4883,7 +4814,7 @@
         <v>367</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>3</v>
@@ -4897,10 +4828,13 @@
         <v>369</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>249</v>
+        <v>33</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4911,10 +4845,13 @@
         <v>371</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>30</v>
+        <v>245</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4925,7 +4862,10 @@
         <v>373</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>4</v>
@@ -4953,7 +4893,7 @@
         <v>377</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>3</v>
@@ -4970,13 +4910,10 @@
         <v>379</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4987,13 +4924,10 @@
         <v>381</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5020,9 +4954,6 @@
       <c r="C196" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E196" s="1" t="s">
         <v>4</v>
       </c>
@@ -5037,8 +4968,8 @@
       <c r="C197" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>3</v>
+      <c r="E197" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5049,10 +4980,10 @@
         <v>389</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5063,10 +4994,10 @@
         <v>391</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5091,7 +5022,7 @@
         <v>395</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>4</v>
@@ -5105,7 +5036,10 @@
         <v>397</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>4</v>
@@ -5119,10 +5053,10 @@
         <v>399</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5133,10 +5067,10 @@
         <v>401</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5147,7 +5081,7 @@
         <v>403</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>4</v>
@@ -5161,13 +5095,10 @@
         <v>405</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5180,8 +5111,8 @@
       <c r="C207" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>3</v>
+      <c r="E207" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5206,7 +5137,7 @@
         <v>411</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>4</v>
@@ -5214,10 +5145,10 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>30</v>
@@ -5228,13 +5159,16 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="C211" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>4</v>
@@ -5242,27 +5176,33 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="C212" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="C213" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>4</v>
@@ -5270,16 +5210,19 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>420</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5290,27 +5233,21 @@
         <v>422</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>30</v>
+        <v>423</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>4</v>
@@ -5318,16 +5255,13 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>4</v>
@@ -5335,13 +5269,13 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>3</v>
@@ -5352,16 +5286,19 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>431</v>
+        <v>136</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5372,7 +5309,7 @@
         <v>433</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>42</v>
+        <v>423</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>4</v>
@@ -5400,13 +5337,10 @@
         <v>437</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5417,13 +5351,10 @@
         <v>439</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5434,10 +5365,10 @@
         <v>441</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5448,10 +5379,10 @@
         <v>443</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5462,7 +5393,7 @@
         <v>445</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>3</v>
@@ -5476,7 +5407,7 @@
         <v>447</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>3</v>
@@ -5490,38 +5421,38 @@
         <v>449</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>171</v>
+        <v>450</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>3</v>
@@ -5529,10 +5460,10 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>30</v>
@@ -5543,10 +5474,10 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>30</v>
@@ -5557,30 +5488,28 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>30</v>
+        <v>460</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
+      </c>
+      <c r="B234" s="1" t="str">
+        <f aca="false">B233</f>
+        <v>6.3.1</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>3</v>
@@ -5588,13 +5517,13 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>3</v>
@@ -5602,24 +5531,24 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>30</v>
@@ -5630,13 +5559,13 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>469</v>
+        <v>30</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>3</v>
@@ -5646,9 +5575,8 @@
       <c r="A239" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B239" s="1" t="str">
-        <f aca="false">B238</f>
-        <v>6.3.1</v>
+      <c r="B239" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>42</v>
@@ -5659,24 +5587,24 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>42</v>
@@ -5687,13 +5615,13 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>3</v>
@@ -5701,13 +5629,13 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>3</v>
@@ -5715,24 +5643,27 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>30</v>
@@ -5743,58 +5674,55 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E246" s="1" t="s">
-        <v>4</v>
+      <c r="D246" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>171</v>
+        <v>486</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>3</v>
@@ -5802,16 +5730,13 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>171</v>
+        <v>492</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>3</v>
+        <v>423</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>4</v>
@@ -5819,13 +5744,13 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>30</v>
+        <v>423</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>3</v>
@@ -5836,24 +5761,24 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E252" s="1" t="s">
-        <v>4</v>
+      <c r="D252" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>42</v>
@@ -5864,10 +5789,10 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>30</v>
@@ -5878,24 +5803,24 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E255" s="1" t="s">
-        <v>4</v>
+      <c r="D255" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>30</v>
@@ -5906,44 +5831,41 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>431</v>
+        <v>30</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>3</v>
@@ -5951,10 +5873,10 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>42</v>
@@ -5965,24 +5887,24 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>42</v>
@@ -5993,13 +5915,13 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>3</v>
@@ -6007,10 +5929,10 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>30</v>
@@ -6021,10 +5943,10 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>30</v>
@@ -6035,52 +5957,58 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>42</v>
@@ -6091,13 +6019,13 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>3</v>
@@ -6105,10 +6033,10 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>30</v>
@@ -6119,10 +6047,10 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>30</v>
@@ -6133,47 +6061,41 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>3</v>
@@ -6181,10 +6103,10 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>42</v>
@@ -6195,30 +6117,27 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>171</v>
+        <v>546</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>3</v>
@@ -6226,27 +6145,27 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D279" s="1" t="s">
-        <v>3</v>
+      <c r="E279" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>3</v>
@@ -6254,10 +6173,10 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>30</v>
@@ -6268,13 +6187,13 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>3</v>
@@ -6282,13 +6201,13 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>3</v>
@@ -6296,13 +6215,13 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>3</v>
@@ -6310,10 +6229,10 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>30</v>
@@ -6324,10 +6243,10 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>30</v>
@@ -6338,27 +6257,27 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E287" s="1" t="s">
-        <v>4</v>
+      <c r="D287" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>3</v>
@@ -6366,10 +6285,10 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>30</v>
@@ -6380,13 +6299,13 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>3</v>
@@ -6394,13 +6313,13 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>3</v>
@@ -6408,10 +6327,10 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>30</v>
@@ -6422,10 +6341,10 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>30</v>
@@ -6436,10 +6355,10 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>30</v>
@@ -6450,13 +6369,13 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>3</v>
@@ -6464,10 +6383,10 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>30</v>
@@ -6478,13 +6397,13 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>582</v>
+        <v>532</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>3</v>
@@ -6492,13 +6411,13 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>3</v>
@@ -6506,27 +6425,27 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D299" s="1" t="s">
-        <v>3</v>
+      <c r="E299" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>30</v>
+        <v>245</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>3</v>
@@ -6534,13 +6453,13 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>3</v>
@@ -6548,13 +6467,13 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>3</v>
@@ -6562,13 +6481,13 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>3</v>
@@ -6576,10 +6495,10 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>596</v>
+        <v>568</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>30</v>
@@ -6590,30 +6509,27 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>171</v>
+        <v>570</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>544</v>
+        <v>601</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>3</v>
@@ -6621,10 +6537,10 @@
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>600</v>
+        <v>574</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>30</v>
@@ -6635,27 +6551,27 @@
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E308" s="1" t="s">
-        <v>4</v>
+      <c r="D308" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>3</v>
@@ -6663,13 +6579,13 @@
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>3</v>
@@ -6677,13 +6593,13 @@
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>609</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>3</v>
@@ -6697,7 +6613,7 @@
         <v>611</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>3</v>
@@ -6705,7 +6621,7 @@
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>612</v>
@@ -6719,27 +6635,27 @@
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>582</v>
+        <v>613</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D314" s="1" t="s">
-        <v>3</v>
+      <c r="E314" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>614</v>
+        <v>552</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>615</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>3</v>
@@ -6747,10 +6663,10 @@
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>30</v>
@@ -6761,10 +6677,10 @@
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>30</v>
@@ -6775,10 +6691,10 @@
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>30</v>
@@ -6789,10 +6705,10 @@
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>592</v>
+        <v>622</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>30</v>
@@ -6803,13 +6719,13 @@
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>594</v>
+        <v>624</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>3</v>
@@ -6817,13 +6733,13 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>3</v>
@@ -6831,13 +6747,13 @@
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>560</v>
+        <v>628</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>3</v>
@@ -6845,24 +6761,24 @@
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>564</v>
+        <v>632</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>33</v>
@@ -6873,30 +6789,27 @@
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>348</v>
+        <v>634</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>30</v>
+        <v>245</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E325" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>30</v>
+        <v>245</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>3</v>
@@ -6904,13 +6817,13 @@
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>30</v>
+        <v>245</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>3</v>
@@ -6918,13 +6831,13 @@
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>30</v>
+        <v>245</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>3</v>
@@ -6932,13 +6845,13 @@
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>3</v>
@@ -6946,13 +6859,13 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>3</v>
@@ -6960,10 +6873,10 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>42</v>
@@ -6974,10 +6887,10 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>42</v>
@@ -6988,13 +6901,13 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>3</v>
@@ -7002,13 +6915,13 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>3</v>
@@ -7016,223 +6929,32 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>249</v>
+        <v>2</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D339" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D340" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D343" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D344" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D347" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E347" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E348" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E349" s="1" t="s">
+      <c r="E336" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/app/templates/template_rules_3.xlsx
+++ b/app/templates/template_rules_3.xlsx
@@ -1078,7 +1078,7 @@
     <t xml:space="preserve">5.2.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Cacle de suspensión flojo con riesgo de desmonte de la garganta de la polea.</t>
+    <t xml:space="preserve">Cable de suspensión flojo con riesgo de desmonte de la garganta de la polea.</t>
   </si>
   <si>
     <t xml:space="preserve">5.2.2</t>
@@ -2096,8 +2096,8 @@
   </sheetPr>
   <dimension ref="A1:E336"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A307" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A152" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A180" activeCellId="0" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
